--- a/DataBase/fish.xlsx
+++ b/DataBase/fish.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20710" windowHeight="9537" activeTab="5"/>
+    <workbookView windowWidth="20710" windowHeight="9537"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
     <sheet name="salary" sheetId="2" r:id="rId2"/>
-    <sheet name="sourse" sheetId="3" r:id="rId3"/>
-    <sheet name="stuinfo" sheetId="4" r:id="rId4"/>
-    <sheet name="stuscore" sheetId="5" r:id="rId5"/>
-    <sheet name="work" sheetId="6" r:id="rId6"/>
+    <sheet name="work" sheetId="6" r:id="rId3"/>
+    <sheet name="sourse" sheetId="3" r:id="rId4"/>
+    <sheet name="stuinfo" sheetId="4" r:id="rId5"/>
+    <sheet name="stuscore" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -219,6 +219,30 @@
     <t>expense</t>
   </si>
   <si>
+    <t>workname</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>人力资源部</t>
+  </si>
+  <si>
+    <t>经理办公室</t>
+  </si>
+  <si>
+    <t>研发部</t>
+  </si>
+  <si>
+    <t>市场部</t>
+  </si>
+  <si>
     <t>sour_id</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t>李四</t>
   </si>
   <si>
+    <t>互联网技术</t>
+  </si>
+  <si>
     <t>081103</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t>赵六</t>
   </si>
   <si>
+    <t>软件工程</t>
+  </si>
+  <si>
     <t>081105</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>孙艳</t>
   </si>
   <si>
+    <t>计算机科学</t>
+  </si>
+  <si>
     <t>国家级奖学金获得者</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>闫红</t>
   </si>
   <si>
+    <t>网络工程</t>
+  </si>
+  <si>
     <t>免修</t>
   </si>
   <si>
@@ -408,6 +444,9 @@
     <t>吴无</t>
   </si>
   <si>
+    <t>网络安全</t>
+  </si>
+  <si>
     <t>081208</t>
   </si>
   <si>
@@ -415,30 +454,6 @@
   </si>
   <si>
     <t>score</t>
-  </si>
-  <si>
-    <t>workname</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>财务部</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>人力资源部</t>
-  </si>
-  <si>
-    <t>经理办公室</t>
-  </si>
-  <si>
-    <t>研发部</t>
-  </si>
-  <si>
-    <t>市场部</t>
   </si>
 </sst>
 </file>
@@ -446,13 +461,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -460,7 +475,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,9 +500,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,7 +515,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,8 +543,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,46 +574,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -589,7 +608,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,8 +622,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,187 +639,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,21 +887,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -900,6 +905,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -913,154 +933,159 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1382,7 +1407,7 @@
   <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1431,7 +1456,7 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>24130</v>
       </c>
       <c r="E2">
@@ -1460,7 +1485,7 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>27847</v>
       </c>
       <c r="E3">
@@ -1489,7 +1514,7 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>28189</v>
       </c>
       <c r="E4">
@@ -1518,7 +1543,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>30294</v>
       </c>
       <c r="E5">
@@ -1547,7 +1572,7 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>22127</v>
       </c>
       <c r="E6">
@@ -1576,7 +1601,7 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>26590</v>
       </c>
       <c r="E7">
@@ -1605,7 +1630,7 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>24013</v>
       </c>
       <c r="E8">
@@ -1634,7 +1659,7 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>29077</v>
       </c>
       <c r="E9">
@@ -1663,7 +1688,7 @@
       <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>27303</v>
       </c>
       <c r="E10">
@@ -1692,7 +1717,7 @@
       <c r="C11" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>28217</v>
       </c>
       <c r="E11">
@@ -1721,7 +1746,7 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>25101</v>
       </c>
       <c r="E12">
@@ -1750,7 +1775,7 @@
       <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <v>28812</v>
       </c>
       <c r="E13">
@@ -1779,7 +1804,7 @@
       <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>25449</v>
       </c>
       <c r="E14">
@@ -1809,7 +1834,7 @@
   <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1978,752 +2003,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>50</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>50</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>50</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" outlineLevelCol="6"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="1">
-        <v>36526</v>
-      </c>
-      <c r="F2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="1">
-        <v>36527</v>
-      </c>
-      <c r="F3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="1">
-        <v>36528</v>
-      </c>
-      <c r="F4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="1">
-        <v>36529</v>
-      </c>
-      <c r="F5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="1">
-        <v>36530</v>
-      </c>
-      <c r="F6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="1">
-        <v>36531</v>
-      </c>
-      <c r="F7">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="1">
-        <v>36532</v>
-      </c>
-      <c r="F8">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1">
-        <v>36533</v>
-      </c>
-      <c r="F9">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="1">
-        <v>36534</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="1">
-        <v>36535</v>
-      </c>
-      <c r="F11">
-        <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="1">
-        <v>36536</v>
-      </c>
-      <c r="F12">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="1">
-        <v>36537</v>
-      </c>
-      <c r="F13">
-        <v>53</v>
-      </c>
-      <c r="G13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="1">
-        <v>36538</v>
-      </c>
-      <c r="F14">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="1">
-        <v>36539</v>
-      </c>
-      <c r="F15">
-        <v>55</v>
-      </c>
-      <c r="G15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1">
-        <v>36540</v>
-      </c>
-      <c r="F16">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="1">
-        <v>36541</v>
-      </c>
-      <c r="F17">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>114</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2738,10 +2020,10 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2749,10 +2031,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2760,10 +2042,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2771,10 +2053,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2782,10 +2064,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2793,10 +2075,764 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="17.6725663716814" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="18.4336283185841" customWidth="1"/>
+    <col min="5" max="5" width="18.6106194690265" customWidth="1"/>
+    <col min="7" max="7" width="23.9115044247788" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="3">
+        <v>36526</v>
+      </c>
+      <c r="F2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="3">
+        <v>36527</v>
+      </c>
+      <c r="F3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="3">
+        <v>36528</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="3">
+        <v>36529</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="3">
+        <v>36530</v>
+      </c>
+      <c r="F6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="3">
+        <v>36531</v>
+      </c>
+      <c r="F7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="3">
+        <v>36532</v>
+      </c>
+      <c r="F8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="3">
+        <v>36533</v>
+      </c>
+      <c r="F9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="3">
+        <v>36534</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="3">
+        <v>36535</v>
+      </c>
+      <c r="F11">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="3">
+        <v>36536</v>
+      </c>
+      <c r="F12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="3">
+        <v>36537</v>
+      </c>
+      <c r="F13">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="3">
+        <v>36538</v>
+      </c>
+      <c r="F14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="3">
+        <v>36539</v>
+      </c>
+      <c r="F15">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C6" t="s">
-        <v>135</v>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="3">
+        <v>36540</v>
+      </c>
+      <c r="F16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="3">
+        <v>36541</v>
+      </c>
+      <c r="F17">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="1">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="1">
+        <v>101</v>
+      </c>
+      <c r="C7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="1">
+        <v>102</v>
+      </c>
+      <c r="C10">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="1">
+        <v>107</v>
+      </c>
+      <c r="C14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="1">
+        <v>104</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
